--- a/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,96; 5,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,01; 6,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,44; 10,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,41; 3,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,48; 7,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,0; 3,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,92; 3,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,71; 6,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,43; 6,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,19; 4,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,1; 9,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,59; 4,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,76; 7,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,49; 8,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,18; 10,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,97; 9,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,92; 7,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,13; 5,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,33; 8,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,74; 6,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,68; 6,64</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,89; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,44; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,27; 6,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,18; 4,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>4,58; 10,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,62; 5,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,27; 3,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,85; 2,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,33; 6,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,75; 4,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,59; 4,06</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,21; 5,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,63; 4,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>2,46; 6,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,54; 4,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,88; 5,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,77; 7,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,11; 9,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,26; 18,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,97; 4,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,99; 5,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,76; 7,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,94; 12,61</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>1,43; 6,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>1,9; 7,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,81; 4,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,52; 7,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>5,02; 13,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,08; 14,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,57; 8,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,48; 6,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,75; 8,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,82; 9,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,09; 5,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,45; 6,13</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,38; 4,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,89; 6,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,79; 6,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,13; 5,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,76; 6,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,9; 8,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>2,59; 8,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,85; 6,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,57; 4,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,89; 6,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,79; 6,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,9; 5,02</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,71; 2,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,65; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,21; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,61; 4,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,77; 4,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,76; 5,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,09; 7,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,03; 8,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,48; 3,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,06; 3,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,09; 5,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,5; 6,03</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,54; 5,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,5; 5,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,15; 4,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,12; 4,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,59; 5,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,9; 5,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,62; 6,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,8; 7,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,85; 4,96</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,06; 4,98</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,22; 5,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,69; 5,73</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,89; 2,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,78; 4,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,57; 3,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,75; 4,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,32; 4,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,72; 6,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,62; 6,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,32; 6,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,73; 3,58</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,99; 5,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,77; 4,72</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,77; 5,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 6,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,98</t>
+          <t>3,53; 12,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 11,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,37</t>
+          <t>0,99; 3,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 7,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,25</t>
+          <t>2,48; 7,16</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,59</t>
+          <t>2,73; 7,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,27</t>
+          <t>3,97; 7,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,64</t>
+          <t>3,65; 6,73</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,06</t>
+          <t>1,31; 6,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,95</t>
+          <t>1,28; 3,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,06</t>
+          <t>1,63; 4,2</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,38</t>
+          <t>0,83; 3,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,89</t>
+          <t>0,54; 4,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,26</t>
+          <t>2,47; 6,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 18,69</t>
+          <t>1,99; 49,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,32</t>
+          <t>1,98; 4,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 12,61</t>
+          <t>1,9; 36,74</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,43</t>
+          <t>1,49; 7,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,47</t>
+          <t>2,45; 6,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,13</t>
+          <t>2,43; 5,94</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,32</t>
+          <t>1,14; 5,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,22</t>
+          <t>1,83; 6,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,02</t>
+          <t>1,88; 5,0</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,39</t>
+          <t>1,61; 4,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,58</t>
+          <t>2,71; 8,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,03</t>
+          <t>2,67; 5,67</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,86</t>
+          <t>1,01; 3,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,72</t>
+          <t>4,82; 7,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,73</t>
+          <t>2,62; 5,21</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,19</t>
+          <t>2,47; 4,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,65</t>
+          <t>4,21; 14,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,11</t>
+          <t>3,66; 9,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,17</t>
+          <t>0,98; 5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,52</t>
+          <t>1,77; 6,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,71</t>
+          <t>2,0; 6,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,15</t>
+          <t>3,53; 12,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,58</t>
+          <t>0,39; 3,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,33</t>
+          <t>4,12; 10,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,82</t>
+          <t>2,42; 8,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,32</t>
+          <t>0,94; 3,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,71</t>
+          <t>1,05; 3,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,57</t>
+          <t>3,58; 7,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,18</t>
+          <t>2,77; 6,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,16</t>
+          <t>2,45; 7,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,1</t>
+          <t>1,16; 4,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,28</t>
+          <t>4,14; 9,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,48</t>
+          <t>1,62; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,61</t>
+          <t>2,7; 7,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,83</t>
+          <t>4,32; 8,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,02</t>
+          <t>5,03; 9,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,59</t>
+          <t>4,91; 9,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,35</t>
+          <t>3,86; 7,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,61</t>
+          <t>3,14; 5,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,94</t>
+          <t>5,25; 8,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,44</t>
+          <t>3,63; 6,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,73</t>
+          <t>3,71; 6,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,3</t>
+          <t>0,87; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,38</t>
+          <t>1,37; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,34</t>
+          <t>1,28; 6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,9</t>
+          <t>1,16; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,15</t>
+          <t>4,82; 10,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,21</t>
+          <t>1,62; 5,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,99</t>
+          <t>1,24; 4,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,86</t>
+          <t>0,87; 3,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,83</t>
+          <t>3,19; 6,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,44</t>
+          <t>1,86; 4,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,2</t>
+          <t>1,57; 4,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,12</t>
+          <t>1,18; 5,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,7</t>
+          <t>0,8; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,69</t>
+          <t>2,39; 7,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,95</t>
+          <t>0,43; 4,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,6</t>
+          <t>2,01; 5,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,48</t>
+          <t>2,25; 6,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,71</t>
+          <t>4,14; 9,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 49,71</t>
+          <t>2,05; 47,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,75</t>
+          <t>1,87; 4,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,41</t>
+          <t>1,98; 4,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,4</t>
+          <t>3,84; 7,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 36,74</t>
+          <t>1,89; 35,77</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,71</t>
+          <t>1,32; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,26</t>
+          <t>1,94; 7,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,72</t>
+          <t>0,75; 4,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,07</t>
+          <t>1,56; 7,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 13,64</t>
+          <t>4,93; 12,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,34</t>
+          <t>6,07; 14,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,41</t>
+          <t>2,43; 7,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,33</t>
+          <t>2,44; 6,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,82</t>
+          <t>3,89; 8,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,52</t>
+          <t>4,77; 9,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,61</t>
+          <t>1,96; 5,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,94</t>
+          <t>2,49; 5,71</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,29</t>
+          <t>0,59; 4,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,6</t>
+          <t>1,84; 7,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,21</t>
+          <t>1,87; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,4</t>
+          <t>1,03; 5,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,33</t>
+          <t>1,58; 6,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,8</t>
+          <t>2,88; 8,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,8</t>
+          <t>2,64; 8,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,25</t>
+          <t>2,06; 6,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,63</t>
+          <t>1,42; 4,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,7</t>
+          <t>2,89; 6,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,47</t>
+          <t>2,72; 6,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,0</t>
+          <t>1,85; 5,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,92</t>
+          <t>0,71; 2,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,85</t>
+          <t>0,74; 2,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,91</t>
+          <t>1,14; 3,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,34</t>
+          <t>1,6; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,49</t>
+          <t>1,82; 4,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,91</t>
+          <t>2,72; 5,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,63</t>
+          <t>4,0; 7,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,18</t>
+          <t>2,72; 8,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,28</t>
+          <t>1,58; 3,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,93</t>
+          <t>2,01; 3,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,5</t>
+          <t>2,98; 5,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,67</t>
+          <t>2,68; 5,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,51</t>
+          <t>2,56; 5,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,38</t>
+          <t>2,58; 5,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,63</t>
+          <t>2,15; 4,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,97</t>
+          <t>0,91; 4,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,29</t>
+          <t>2,61; 5,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,93</t>
+          <t>2,91; 5,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,79</t>
+          <t>3,74; 6,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,69; 7,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,96</t>
+          <t>2,84; 4,75</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,06; 4,98</t>
+          <t>3,06; 5,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,29</t>
+          <t>3,21; 5,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,21</t>
+          <t>2,4; 5,2</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,97</t>
+          <t>1,88; 3,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,09</t>
+          <t>2,84; 4,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,68</t>
+          <t>2,51; 3,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,13</t>
+          <t>2,44; 4,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,64</t>
+          <t>3,28; 4,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,31</t>
+          <t>4,78; 6,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,26</t>
+          <t>4,62; 6,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,16</t>
+          <t>4,18; 12,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,58</t>
+          <t>2,71; 3,64</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,0</t>
+          <t>3,95; 5,02</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,77; 4,72</t>
+          <t>3,74; 4,77</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,42</t>
+          <t>3,67; 8,79</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6300</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11032</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11292</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19803</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19344</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13016</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5454</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10411</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30376</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24309</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25256</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2681; 14174</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5143; 18787</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5884; 19668</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10989; 38006</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1022; 9742</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11536; 29735</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6987; 23154</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2732; 9561</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5585; 19516</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20427; 44130</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16142; 35734</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14752; 44483</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10873</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32351</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14265</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24436</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31583</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37869</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36267</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27328</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42456</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70220</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50532</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51764</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5728; 20174</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20904; 48061</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8152; 22829</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13952; 41021</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21783; 44799</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26308; 50252</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25675; 48985</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19846; 37941</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31288; 56274</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53945; 90318</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37211; 65704</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38211; 70008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2546</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8733</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24363</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10246</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11279</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31184</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19283</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17489</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10143</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2825; 13657</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4378; 16702</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4041; 20658</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3889; 15529</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16433; 35401</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5456; 17476</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4315; 13978</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5684; 19692</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21166; 44588</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12156; 29363</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10467; 28563</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7352</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15657</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5685</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13096</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15860</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25386</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80245</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22399</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23212</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41044</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>85930</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4217; 18127</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2995; 14501</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8834; 27108</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1345; 14075</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7472; 21598</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8740; 24813</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16051; 36586</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9768; 224331</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13632; 33693</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15061; 33045</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29050; 56840</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14893; 281863</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6753</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8981</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6322</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17628</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21086</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10139</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8217</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24381</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30067</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14596</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14538</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2691; 13660</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4122; 15539</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1591; 9903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2782; 13352</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10246; 26912</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13326; 30993</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5308; 16913</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5083; 13208</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15972; 36955</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20620; 42417</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8405; 22884</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9644; 22122</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10130</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9700</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9567</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14225</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13669</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9567</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14265</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>24356</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23369</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16471</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1610; 11653</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5040; 20216</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4915; 17623</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2773; 14102</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4401; 16844</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7996; 23272</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7197; 22442</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5297; 17088</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7771; 23833</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>15975; 35716</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14596; 34874</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9731; 26370</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9453</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14761</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>16804</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18402</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>28292</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>39699</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>47364</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27855</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>38579</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>54460</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>64168</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4365; 18250</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4933; 17955</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7513; 24967</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>9982; 26179</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11616; 29380</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>18868; 40968</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27643; 54169</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23106; 68156</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19842; 41044</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27311; 53232</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>40207; 72111</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>39493; 83756</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28287</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29653</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25065</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>23284</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>29157</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>34167</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>42041</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>43461</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>57444</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>63821</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>67106</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>66745</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19041; 40046</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>20045; 41763</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>16710; 36184</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>8496; 37886</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>20445; 41082</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>23933; 46825</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>30857; 57536</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>33518; 54626</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>43403; 72510</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>48846; 82510</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>51457; 84283</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>39468; 85434</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>78213</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>116610</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>104236</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>112679</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>132277</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>195206</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>190462</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>229682</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>210489</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>311815</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>294698</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>342361</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>61545; 98468</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>97114; 140864</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>85287; 125454</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>84475; 143314</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>110742; 154949</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>169425; 224957</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>163880; 219774</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>152869; 463207</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>180513; 242450</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>274781; 349313</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>259786; 330773</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>261143; 625379</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>